--- a/biology/Botanique/Plectranthus_fruticosus/Plectranthus_fruticosus.xlsx
+++ b/biology/Botanique/Plectranthus_fruticosus/Plectranthus_fruticosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plectranthus fruticosus (forest spurflower en anglais, ce qui peut se traduire par « fleur à éperon des forêts »), est une espèce de plante à fleurs de la famille des Lamiacées, originaire d'Afrique du Sud. Cette plante odorante peut être cultivée en pot ; elle peut atteindre deux mètres de hauteur, ce qui en fait dans son milieu d'origine un arbuste à feuilles persistantes, avec des feuilles arrondies et velues, et des épis de fleurs bleues ou mauves en été.
-L'épithète spécifique latine fruticosus signifie « arbustif »[1].
+L'épithète spécifique latine fruticosus signifie « arbustif ».
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand elle est native, cette plante pousse dans toutes les régions du Cap-Occidental et du Limpopo, profitant des conditions humides et de l'ombre tachetée de lumière de la lisière forestière[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand elle est native, cette plante pousse dans toutes les régions du Cap-Occidental et du Limpopo, profitant des conditions humides et de l'ombre tachetée de lumière de la lisière forestière.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a aussi une longue histoire de culture en Europe, où elle nécessite une protection hivernale dans les régions à hiver froid. Plusieurs cultivars sont disponibles, dont le 'James' à fleurs roses qui a remporté le prix du mérite du jardin de la Royal Horticultural Society[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a aussi une longue histoire de culture en Europe, où elle nécessite une protection hivernale dans les régions à hiver froid. Plusieurs cultivars sont disponibles, dont le 'James' à fleurs roses qui a remporté le prix du mérite du jardin de la Royal Horticultural Society,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de cette plante présentent une certaine toxicité en raison de leur teneur en acétate de sabinyl (molécule trouvée dans l'huile essentielle de Plectranthus fruticosus (plus de 60 % de l'huile essentielle). Un extrait de cette huile testée sur le rat Wistar (de laboratoire) a montré un effet antifertilité et anti-implantation de l'embryon[5] et un effet tératogène chez l'embryon comme chez le fœtus (avec absence d'yeux principalement)[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de cette plante présentent une certaine toxicité en raison de leur teneur en acétate de sabinyl (molécule trouvée dans l'huile essentielle de Plectranthus fruticosus (plus de 60 % de l'huile essentielle). Un extrait de cette huile testée sur le rat Wistar (de laboratoire) a montré un effet antifertilité et anti-implantation de l'embryon et un effet tératogène chez l'embryon comme chez le fœtus (avec absence d'yeux principalement),.
 </t>
         </is>
       </c>
